--- a/assets/excel/Data Guru.xlsx
+++ b/assets/excel/Data Guru.xlsx
@@ -74,7 +74,7 @@
     <t>timothyasha@yahoo.com</t>
   </si>
   <si>
-    <t>BK</t>
+    <t>Pend.Bahasa Indonesia</t>
   </si>
   <si>
     <t>gty/pty</t>
